--- a/VHG_CINERGI-ResourceInventoryTemplate.xlsx
+++ b/VHG_CINERGI-ResourceInventoryTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27426"/>
+  <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vhgarcia4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Vick/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" tabRatio="713" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14400" tabRatio="713" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -37,8 +37,11 @@
     <definedName name="Type" localSheetId="5">[1]Engine!$A$4:$A$5</definedName>
     <definedName name="Type">Engine!$A$4:$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -53,7 +56,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="1" shapeId="0">
+    <comment ref="C1" authorId="1">
       <text>
         <r>
           <rPr>
@@ -79,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -92,7 +95,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -160,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -187,7 +190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -213,7 +216,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -280,7 +283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="1" shapeId="0">
+    <comment ref="C2" authorId="1">
       <text>
         <r>
           <rPr>
@@ -293,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -306,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -320,7 +323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -334,7 +337,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -347,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -374,7 +377,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="H3" authorId="0" shapeId="0">
+    <comment ref="H3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0">
+    <comment ref="B4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -412,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="1" shapeId="0">
+    <comment ref="C4" authorId="1">
       <text>
         <r>
           <rPr>
@@ -425,7 +428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0">
+    <comment ref="B5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -452,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="1" shapeId="0">
+    <comment ref="C5" authorId="1">
       <text>
         <r>
           <rPr>
@@ -506,7 +509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1">
       <text>
         <r>
           <rPr>
@@ -531,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="2" shapeId="0">
+    <comment ref="C6" authorId="2">
       <text>
         <r>
           <rPr>
@@ -544,7 +547,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0">
+    <comment ref="B7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -571,7 +574,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="1" shapeId="0">
+    <comment ref="C7" authorId="1">
       <text>
         <r>
           <rPr>
@@ -585,7 +588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -611,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="1" shapeId="0">
+    <comment ref="C8" authorId="1">
       <text>
         <r>
           <rPr>
@@ -625,7 +628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -651,7 +654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="1" shapeId="0">
+    <comment ref="C9" authorId="1">
       <text>
         <r>
           <rPr>
@@ -665,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1" shapeId="0">
+    <comment ref="B10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -690,7 +693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="1" shapeId="0">
+    <comment ref="C10" authorId="1">
       <text>
         <r>
           <rPr>
@@ -703,7 +706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0">
+    <comment ref="B14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -732,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="1" shapeId="0">
+    <comment ref="C14" authorId="1">
       <text>
         <r>
           <rPr>
@@ -745,7 +748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
+    <comment ref="B15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -771,7 +774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C15" authorId="1" shapeId="0">
+    <comment ref="C15" authorId="1">
       <text>
         <r>
           <rPr>
@@ -785,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0">
+    <comment ref="B16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -810,7 +813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C16" authorId="1" shapeId="0">
+    <comment ref="C16" authorId="1">
       <text>
         <r>
           <rPr>
@@ -823,7 +826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="1" shapeId="0">
+    <comment ref="B20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -850,7 +853,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="1" shapeId="0">
+    <comment ref="C20" authorId="1">
       <text>
         <r>
           <rPr>
@@ -864,7 +867,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="1" shapeId="0">
+    <comment ref="C21" authorId="1">
       <text>
         <r>
           <rPr>
@@ -879,7 +882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B22" authorId="1" shapeId="0">
+    <comment ref="B22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -904,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C22" authorId="1" shapeId="0">
+    <comment ref="C22" authorId="1">
       <text>
         <r>
           <rPr>
@@ -918,7 +921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B23" authorId="1" shapeId="0">
+    <comment ref="B23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -943,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C23" authorId="1" shapeId="0">
+    <comment ref="C23" authorId="1">
       <text>
         <r>
           <rPr>
@@ -957,7 +960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="1" shapeId="0">
+    <comment ref="B24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -982,7 +985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C24" authorId="1" shapeId="0">
+    <comment ref="C24" authorId="1">
       <text>
         <r>
           <rPr>
@@ -996,7 +999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="1" shapeId="0">
+    <comment ref="B25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1021,7 +1024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C25" authorId="1" shapeId="0">
+    <comment ref="C25" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1035,7 +1038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C26" authorId="0" shapeId="0">
+    <comment ref="C26" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1049,7 +1052,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B27" authorId="1" shapeId="0">
+    <comment ref="B27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1075,7 +1078,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C27" authorId="1" shapeId="0">
+    <comment ref="C27" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1090,7 +1093,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A30" authorId="1" shapeId="0">
+    <comment ref="A30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1115,7 +1118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B30" authorId="1" shapeId="0">
+    <comment ref="B30" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1140,7 +1143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B31" authorId="1" shapeId="0">
+    <comment ref="B31" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1165,7 +1168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A32" authorId="1" shapeId="0">
+    <comment ref="A32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1191,7 +1194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B32" authorId="1" shapeId="0">
+    <comment ref="B32" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1217,7 +1220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B33" authorId="1" shapeId="0">
+    <comment ref="B33" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A35" authorId="1" shapeId="0">
+    <comment ref="A35" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1297,7 +1300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="1" shapeId="0">
+    <comment ref="A42" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1324,7 +1327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1337,7 +1340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1350,7 +1353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1374,7 +1377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B45" authorId="1" shapeId="0">
+    <comment ref="B45" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1402,7 +1405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B46" authorId="1" shapeId="0">
+    <comment ref="B46" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1430,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B47" authorId="1" shapeId="0">
+    <comment ref="B47" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1457,7 +1460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B48" authorId="1" shapeId="0">
+    <comment ref="B48" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1482,7 +1485,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="1" shapeId="0">
+    <comment ref="A55" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1507,7 +1510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B59" authorId="1" shapeId="0">
+    <comment ref="B59" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1534,7 +1537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B60" authorId="1" shapeId="0">
+    <comment ref="B60" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1559,7 +1562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B61" authorId="1" shapeId="0">
+    <comment ref="B61" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1586,7 +1589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B62" authorId="1" shapeId="0">
+    <comment ref="B62" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1610,7 +1613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B65" authorId="1" shapeId="0">
+    <comment ref="B65" authorId="1">
       <text>
         <r>
           <rPr>
@@ -1634,7 +1637,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="0" shapeId="0">
+    <comment ref="B73" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1657,7 +1660,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1671,7 +1674,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0">
+    <comment ref="A11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1694,7 +1697,7 @@
     <author>Stephen Richard</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1724,7 +1727,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="573">
   <si>
     <t>Revision</t>
   </si>
@@ -3520,18 +3523,90 @@
   <si>
     <t>http://www.earthchem.org/</t>
   </si>
+  <si>
+    <t>Geologynet</t>
+  </si>
+  <si>
+    <t>general geology</t>
+  </si>
+  <si>
+    <t>Website for mineral database and petrographic database</t>
+  </si>
+  <si>
+    <t>https://geologynet.com/dbases.htm</t>
+  </si>
+  <si>
+    <t>https://ngmdb.usgs.gov/ngmdb/ngmdb_home.html</t>
+  </si>
+  <si>
+    <t>Website for the National Geologic map database  for the U.S.</t>
+  </si>
+  <si>
+    <t>geology maps</t>
+  </si>
+  <si>
+    <t>USGS National Geologic Map Database</t>
+  </si>
+  <si>
+    <t>Servicio Geologico Mexicano</t>
+  </si>
+  <si>
+    <t>Geology/Geochemical maps</t>
+  </si>
+  <si>
+    <t>Website for the Mexican Geological Survy, which provides geologic, geochemical, and geophysical maps of Mexico.</t>
+  </si>
+  <si>
+    <t>http://www.gob.mx/sgm</t>
+  </si>
+  <si>
+    <t>Utah Geologic Survery</t>
+  </si>
+  <si>
+    <t>geologic data</t>
+  </si>
+  <si>
+    <t>Website provide geologic data (geology maps, sample locations, mineral resources, etc.) for the state of Utah.</t>
+  </si>
+  <si>
+    <t>http://geology.utah.gov/resources/data-databases/</t>
+  </si>
+  <si>
+    <t>RRUFF</t>
+  </si>
+  <si>
+    <t>Minerals</t>
+  </si>
+  <si>
+    <t>Website providing an intensive mineral database, which has RAMAN spectra, x-ray diffraction, and chemistry data for minerals.</t>
+  </si>
+  <si>
+    <t>http://rruff.info</t>
+  </si>
+  <si>
+    <t>USGS National Map Hydrography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hydrologic </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Website that provides maps about hydrologic data in the U.S. </t>
+  </si>
+  <si>
+    <t>https://viewer.nationalmap.gov/viewer/nhd.html?p=nhd</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\Thh:mm"/>
     <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="82">
+  <fonts count="82" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4093,7 +4168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="60">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4415,6 +4490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9EEED"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5351,7 +5432,7 @@
     <xf numFmtId="0" fontId="73" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="245">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -5976,6 +6057,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="60" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7348,9 +7430,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -7383,9 +7465,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -7589,22 +7671,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="B1:E23"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.375" customWidth="1"/>
+    <col min="3" max="3" width="80.33203125" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
-    <col min="5" max="5" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="18.75">
+    <row r="1" spans="2:5" ht="19" x14ac:dyDescent="0.2">
       <c r="B1" s="40" t="s">
         <v>356</v>
       </c>
@@ -7612,7 +7694,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="40" t="s">
         <v>357</v>
       </c>
@@ -7620,7 +7702,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" s="40" t="s">
         <v>358</v>
       </c>
@@ -7628,7 +7710,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" s="40" t="s">
         <v>359</v>
       </c>
@@ -7636,7 +7718,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
         <v>0</v>
       </c>
@@ -7650,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="34"/>
       <c r="C9" s="33" t="s">
         <v>336</v>
@@ -7662,7 +7744,7 @@
         <v>41715</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B10" s="34"/>
       <c r="C10" s="33" t="s">
         <v>512</v>
@@ -7674,7 +7756,7 @@
         <v>41716</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>540</v>
       </c>
@@ -7688,38 +7770,38 @@
         <v>41757</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
       <c r="D12" s="38"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B13" s="34"/>
       <c r="C13" s="33"/>
       <c r="D13" s="38"/>
       <c r="E13" s="35"/>
     </row>
-    <row r="14" spans="2:5" ht="15.75" thickBot="1"/>
-    <row r="15" spans="2:5" ht="15.75" thickBot="1">
+    <row r="14" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="50"/>
       <c r="C15" s="58" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C16" s="59" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="3:5" ht="18" thickBot="1">
+    <row r="18" spans="3:5" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C18" s="53" t="s">
         <v>268</v>
       </c>
       <c r="D18" s="56"/>
       <c r="E18" s="56"/>
     </row>
-    <row r="19" spans="3:5" ht="15.75" thickTop="1">
+    <row r="19" spans="3:5" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="C19" s="52" t="s">
         <v>1</v>
       </c>
@@ -7730,22 +7812,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C20" s="57"/>
       <c r="D20" s="55"/>
       <c r="E20" s="54"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C21" s="57"/>
       <c r="D21" s="55"/>
       <c r="E21" s="57"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C22" s="57"/>
       <c r="D22" s="55"/>
       <c r="E22" s="57"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C23" s="57"/>
       <c r="D23" s="55"/>
       <c r="E23" s="57"/>
@@ -7757,34 +7839,29 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
+  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15" customHeight="1"/>
-    <row r="21" spans="15:22">
+    <row r="3" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O21" s="46"/>
       <c r="P21" s="46"/>
       <c r="Q21" s="46"/>
@@ -7794,7 +7871,7 @@
       <c r="U21" s="46"/>
       <c r="V21" s="46"/>
     </row>
-    <row r="22" spans="15:22">
+    <row r="22" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O22" s="46"/>
       <c r="P22" s="46"/>
       <c r="Q22" s="46"/>
@@ -7804,7 +7881,7 @@
       <c r="U22" s="46"/>
       <c r="V22" s="46"/>
     </row>
-    <row r="23" spans="15:22">
+    <row r="23" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O23" s="46"/>
       <c r="P23" s="46"/>
       <c r="Q23" s="46"/>
@@ -7814,7 +7891,7 @@
       <c r="U23" s="46"/>
       <c r="V23" s="46"/>
     </row>
-    <row r="24" spans="15:22">
+    <row r="24" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O24" s="45"/>
       <c r="P24" s="45"/>
       <c r="Q24" s="45"/>
@@ -7824,7 +7901,7 @@
       <c r="U24" s="45"/>
       <c r="V24" s="45"/>
     </row>
-    <row r="25" spans="15:22">
+    <row r="25" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O25" s="45"/>
       <c r="P25" s="45"/>
       <c r="Q25" s="45"/>
@@ -7834,7 +7911,7 @@
       <c r="U25" s="45"/>
       <c r="V25" s="45"/>
     </row>
-    <row r="26" spans="15:22">
+    <row r="26" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O26" s="45"/>
       <c r="P26" s="45"/>
       <c r="Q26" s="45"/>
@@ -7844,7 +7921,7 @@
       <c r="U26" s="45"/>
       <c r="V26" s="45"/>
     </row>
-    <row r="27" spans="15:22">
+    <row r="27" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O27" s="45"/>
       <c r="P27" s="45"/>
       <c r="Q27" s="45"/>
@@ -7854,7 +7931,7 @@
       <c r="U27" s="45"/>
       <c r="V27" s="45"/>
     </row>
-    <row r="28" spans="15:22">
+    <row r="28" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O28" s="45"/>
       <c r="P28" s="45"/>
       <c r="Q28" s="45"/>
@@ -7864,7 +7941,7 @@
       <c r="U28" s="45"/>
       <c r="V28" s="45"/>
     </row>
-    <row r="29" spans="15:22">
+    <row r="29" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O29" s="46"/>
       <c r="P29" s="46"/>
       <c r="Q29" s="46"/>
@@ -7874,7 +7951,7 @@
       <c r="U29" s="46"/>
       <c r="V29" s="46"/>
     </row>
-    <row r="30" spans="15:22">
+    <row r="30" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O30" s="46"/>
       <c r="P30" s="46"/>
       <c r="Q30" s="46"/>
@@ -7884,7 +7961,7 @@
       <c r="U30" s="46"/>
       <c r="V30" s="46"/>
     </row>
-    <row r="31" spans="15:22">
+    <row r="31" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O31" s="46"/>
       <c r="P31" s="46"/>
       <c r="Q31" s="46"/>
@@ -7894,7 +7971,7 @@
       <c r="U31" s="46"/>
       <c r="V31" s="46"/>
     </row>
-    <row r="32" spans="15:22">
+    <row r="32" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O32" s="45"/>
       <c r="P32" s="45"/>
       <c r="Q32" s="45"/>
@@ -7904,7 +7981,7 @@
       <c r="U32" s="45"/>
       <c r="V32" s="45"/>
     </row>
-    <row r="33" spans="15:22">
+    <row r="33" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O33" s="45"/>
       <c r="P33" s="45"/>
       <c r="Q33" s="45"/>
@@ -7914,7 +7991,7 @@
       <c r="U33" s="45"/>
       <c r="V33" s="45"/>
     </row>
-    <row r="34" spans="15:22">
+    <row r="34" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O34" s="45"/>
       <c r="P34" s="45"/>
       <c r="Q34" s="45"/>
@@ -7924,7 +8001,7 @@
       <c r="U34" s="45"/>
       <c r="V34" s="45"/>
     </row>
-    <row r="35" spans="15:22">
+    <row r="35" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O35" s="46"/>
       <c r="P35" s="46"/>
       <c r="Q35" s="46"/>
@@ -7934,7 +8011,7 @@
       <c r="U35" s="46"/>
       <c r="V35" s="46"/>
     </row>
-    <row r="36" spans="15:22">
+    <row r="36" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O36" s="46"/>
       <c r="P36" s="46"/>
       <c r="Q36" s="46"/>
@@ -7944,7 +8021,7 @@
       <c r="U36" s="46"/>
       <c r="V36" s="46"/>
     </row>
-    <row r="37" spans="15:22">
+    <row r="37" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O37" s="46"/>
       <c r="P37" s="46"/>
       <c r="Q37" s="46"/>
@@ -7954,7 +8031,7 @@
       <c r="U37" s="46"/>
       <c r="V37" s="46"/>
     </row>
-    <row r="38" spans="15:22">
+    <row r="38" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O38" s="45"/>
       <c r="P38" s="45"/>
       <c r="Q38" s="45"/>
@@ -7964,7 +8041,7 @@
       <c r="U38" s="45"/>
       <c r="V38" s="45"/>
     </row>
-    <row r="39" spans="15:22">
+    <row r="39" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O39" s="47"/>
       <c r="P39" s="45"/>
       <c r="Q39" s="45"/>
@@ -7974,7 +8051,7 @@
       <c r="U39" s="45"/>
       <c r="V39" s="45"/>
     </row>
-    <row r="40" spans="15:22">
+    <row r="40" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O40" s="45"/>
       <c r="P40" s="45"/>
       <c r="Q40" s="45"/>
@@ -7984,7 +8061,7 @@
       <c r="U40" s="45"/>
       <c r="V40" s="45"/>
     </row>
-    <row r="41" spans="15:22">
+    <row r="41" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O41" s="46"/>
       <c r="P41" s="46"/>
       <c r="Q41" s="46"/>
@@ -7994,7 +8071,7 @@
       <c r="U41" s="46"/>
       <c r="V41" s="46"/>
     </row>
-    <row r="42" spans="15:22">
+    <row r="42" spans="15:22" x14ac:dyDescent="0.2">
       <c r="O42" s="46"/>
       <c r="P42" s="46"/>
       <c r="Q42" s="46"/>
@@ -8008,42 +8085,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="142" customWidth="1"/>
-    <col min="2" max="2" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="142" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="20.125" customWidth="1"/>
-    <col min="5" max="5" width="52.125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="52.1640625" customWidth="1"/>
     <col min="6" max="6" width="29.5" customWidth="1"/>
     <col min="7" max="8" width="29.5" style="142" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="11" max="11" width="12.125" customWidth="1"/>
-    <col min="12" max="12" width="15.375" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="15.33203125" customWidth="1"/>
     <col min="13" max="13" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="216" customFormat="1" ht="99.75" customHeight="1">
+    <row r="1" spans="1:13" s="216" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="222" t="s">
         <v>528</v>
       </c>
@@ -8084,24 +8156,24 @@
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="B2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B2" s="226" t="s">
         <v>541</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="226" t="s">
         <v>439</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="226" t="s">
         <v>542</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="226" t="s">
         <v>543</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="226" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>545</v>
       </c>
@@ -8116,6 +8188,108 @@
       </c>
       <c r="F3" t="s">
         <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>549</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>556</v>
+      </c>
+      <c r="C5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E5" t="s">
+        <v>554</v>
+      </c>
+      <c r="F5" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E6" t="s">
+        <v>559</v>
+      </c>
+      <c r="F6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>561</v>
+      </c>
+      <c r="C7" t="s">
+        <v>439</v>
+      </c>
+      <c r="D7" t="s">
+        <v>562</v>
+      </c>
+      <c r="E7" t="s">
+        <v>563</v>
+      </c>
+      <c r="F7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C8" t="s">
+        <v>480</v>
+      </c>
+      <c r="D8" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>569</v>
+      </c>
+      <c r="C9" t="s">
+        <v>439</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" t="s">
+        <v>571</v>
+      </c>
+      <c r="F9" t="s">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -8128,17 +8302,12 @@
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:R14"/>
@@ -8147,38 +8316,38 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="210" customWidth="1"/>
-    <col min="2" max="2" width="53.625" style="210" customWidth="1"/>
-    <col min="3" max="3" width="20.125" style="210" customWidth="1"/>
-    <col min="4" max="4" width="23.125" style="199" customWidth="1"/>
-    <col min="5" max="5" width="48.625" style="140" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="210" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="210" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" style="210" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="210" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="199" customWidth="1"/>
+    <col min="5" max="5" width="48.6640625" style="140" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="210" customWidth="1"/>
     <col min="7" max="7" width="14" style="210" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="210" customWidth="1"/>
-    <col min="9" max="9" width="15.375" style="210" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="210" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" style="210" customWidth="1"/>
     <col min="10" max="10" width="25.5" style="210" customWidth="1"/>
     <col min="11" max="11" width="17.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.625" style="210" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.6640625" style="210" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5" style="210" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.875" style="142"/>
+    <col min="14" max="16384" width="8.83203125" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="65.099999999999994" customHeight="1">
-      <c r="A1" s="226" t="s">
+    <row r="1" spans="1:18" ht="65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="227" t="s">
         <v>319</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="227"/>
-      <c r="K1" s="228" t="s">
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="228"/>
+      <c r="K1" s="229" t="s">
         <v>503</v>
       </c>
-      <c r="L1" s="228"/>
-      <c r="M1" s="228"/>
-    </row>
-    <row r="2" spans="1:18" ht="39" customHeight="1">
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+    </row>
+    <row r="2" spans="1:18" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="202" t="s">
         <v>339</v>
       </c>
@@ -8219,7 +8388,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="78.75">
+    <row r="3" spans="1:18" ht="66" x14ac:dyDescent="0.2">
       <c r="A3" s="211" t="s">
         <v>479</v>
       </c>
@@ -8246,7 +8415,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45">
+    <row r="4" spans="1:18" ht="44" x14ac:dyDescent="0.2">
       <c r="A4" s="211" t="s">
         <v>483</v>
       </c>
@@ -8277,7 +8446,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="135">
+    <row r="5" spans="1:18" ht="121" x14ac:dyDescent="0.2">
       <c r="A5" s="211" t="s">
         <v>487</v>
       </c>
@@ -8308,7 +8477,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="78.75">
+    <row r="6" spans="1:18" ht="77" x14ac:dyDescent="0.2">
       <c r="A6" s="211" t="s">
         <v>490</v>
       </c>
@@ -8339,7 +8508,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="112.5">
+    <row r="7" spans="1:18" ht="99" x14ac:dyDescent="0.2">
       <c r="A7" s="211" t="s">
         <v>493</v>
       </c>
@@ -8372,7 +8541,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="211"/>
       <c r="B8" s="211"/>
       <c r="C8" s="211"/>
@@ -8385,32 +8554,32 @@
       <c r="Q8" s="206"/>
       <c r="R8" s="206"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P9" s="206"/>
       <c r="Q9" s="206"/>
       <c r="R9" s="206"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P10" s="206"/>
       <c r="Q10" s="206"/>
       <c r="R10" s="206"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P11" s="206"/>
       <c r="Q11" s="206"/>
       <c r="R11" s="206"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P12" s="206"/>
       <c r="Q12" s="206"/>
       <c r="R12" s="206"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P13" s="206"/>
       <c r="Q13" s="206"/>
       <c r="R13" s="206"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="P14" s="206"/>
       <c r="Q14" s="206"/>
       <c r="R14" s="206"/>
@@ -8428,62 +8597,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet5"/>
+  <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C64" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C62" activePane="bottomRight" state="frozenSplit"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
       <selection pane="bottomRight" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="35" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="32" customWidth="1"/>
-    <col min="5" max="5" width="18.375" style="32" customWidth="1"/>
-    <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="81.875" customWidth="1"/>
-    <col min="8" max="8" width="87.875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="32" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="81.83203125" customWidth="1"/>
+    <col min="8" max="8" width="87.83203125" style="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5">
-      <c r="A1" s="237" t="s">
+    <row r="1" spans="1:8" ht="20" x14ac:dyDescent="0.2">
+      <c r="A1" s="238" t="s">
         <v>227</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="238"/>
-    </row>
-    <row r="2" spans="1:8" ht="70.349999999999994" customHeight="1">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="238"/>
+      <c r="E1" s="238"/>
+      <c r="F1" s="238"/>
+      <c r="G1" s="239"/>
+    </row>
+    <row r="2" spans="1:8" ht="70.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43"/>
       <c r="B2" s="147" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="241" t="s">
+      <c r="C2" s="242" t="s">
         <v>338</v>
       </c>
-      <c r="D2" s="241"/>
-      <c r="E2" s="241"/>
-    </row>
-    <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1">
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>118</v>
       </c>
@@ -8509,7 +8673,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="142" customFormat="1" ht="45.75" customHeight="1" thickTop="1">
+    <row r="4" spans="1:8" s="142" customFormat="1" ht="45.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A4" s="200" t="s">
         <v>110</v>
       </c>
@@ -8535,7 +8699,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="142" customFormat="1" ht="120">
+    <row r="5" spans="1:8" s="142" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A5" s="200"/>
       <c r="B5" s="203" t="s">
         <v>43</v>
@@ -8559,7 +8723,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="142" customFormat="1" ht="30">
+    <row r="6" spans="1:8" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A6" s="204"/>
       <c r="B6" s="201" t="s">
         <v>114</v>
@@ -8583,7 +8747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="142" customFormat="1" ht="60">
+    <row r="7" spans="1:8" s="142" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="205"/>
       <c r="B7" s="201" t="s">
         <v>21</v>
@@ -8607,7 +8771,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.35" customHeight="1">
+    <row r="8" spans="1:8" s="142" customFormat="1" ht="100.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="184"/>
       <c r="B8" s="149" t="s">
         <v>20</v>
@@ -8631,7 +8795,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.600000000000001" customHeight="1">
+    <row r="9" spans="1:8" s="142" customFormat="1" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="152"/>
       <c r="B9" s="149" t="s">
         <v>344</v>
@@ -8655,7 +8819,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="142" customFormat="1" ht="75">
+    <row r="10" spans="1:8" s="142" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A10" s="152"/>
       <c r="B10" s="149" t="s">
         <v>345</v>
@@ -8679,7 +8843,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="142" customFormat="1" ht="45">
+    <row r="11" spans="1:8" s="142" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A11" s="152"/>
       <c r="B11" s="149" t="s">
         <v>346</v>
@@ -8693,7 +8857,7 @@
       <c r="E11" s="85" t="s">
         <v>238</v>
       </c>
-      <c r="F11" s="229" t="s">
+      <c r="F11" s="230" t="s">
         <v>240</v>
       </c>
       <c r="G11" s="136" t="s">
@@ -8703,7 +8867,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="142" customFormat="1">
+    <row r="12" spans="1:8" s="142" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="158"/>
       <c r="B12" s="149" t="s">
         <v>347</v>
@@ -8717,7 +8881,7 @@
       <c r="E12" s="86" t="s">
         <v>238</v>
       </c>
-      <c r="F12" s="230"/>
+      <c r="F12" s="231"/>
       <c r="G12" s="102" t="s">
         <v>312</v>
       </c>
@@ -8725,7 +8889,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.7" customHeight="1">
+    <row r="13" spans="1:8" s="68" customFormat="1" ht="61.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="64"/>
       <c r="C13" s="146" t="s">
         <v>337</v>
@@ -8736,7 +8900,7 @@
       <c r="G13" s="66"/>
       <c r="H13" s="67"/>
     </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="148"/>
       <c r="B14" s="149" t="s">
         <v>70</v>
@@ -8760,7 +8924,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="18.600000000000001" customHeight="1">
+    <row r="15" spans="1:8" ht="18.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="152"/>
       <c r="B15" s="149" t="s">
         <v>26</v>
@@ -8774,7 +8938,7 @@
       <c r="E15" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="F15" s="239" t="s">
+      <c r="F15" s="240" t="s">
         <v>240</v>
       </c>
       <c r="G15" s="77" t="s">
@@ -8784,7 +8948,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="152"/>
       <c r="B16" s="149" t="s">
         <v>25</v>
@@ -8798,7 +8962,7 @@
       <c r="E16" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="F16" s="240"/>
+      <c r="F16" s="241"/>
       <c r="G16" s="79" t="s">
         <v>198</v>
       </c>
@@ -8806,7 +8970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45">
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A17" s="152"/>
       <c r="B17" s="149" t="s">
         <v>31</v>
@@ -8820,7 +8984,7 @@
       <c r="E17" s="74" t="s">
         <v>238</v>
       </c>
-      <c r="F17" s="239" t="s">
+      <c r="F17" s="240" t="s">
         <v>240</v>
       </c>
       <c r="G17" s="81" t="s">
@@ -8830,7 +8994,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="158"/>
       <c r="B18" s="149" t="s">
         <v>32</v>
@@ -8844,7 +9008,7 @@
       <c r="E18" s="75" t="s">
         <v>238</v>
       </c>
-      <c r="F18" s="240"/>
+      <c r="F18" s="241"/>
       <c r="G18" s="83" t="s">
         <v>312</v>
       </c>
@@ -8852,7 +9016,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.35" customHeight="1">
+    <row r="19" spans="1:8" s="142" customFormat="1" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="160"/>
       <c r="B19" s="149" t="s">
         <v>35</v>
@@ -8876,7 +9040,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.45" customHeight="1">
+    <row r="20" spans="1:8" s="142" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="163"/>
       <c r="B20" s="149" t="s">
         <v>45</v>
@@ -8900,7 +9064,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="142" customFormat="1" ht="60">
+    <row r="21" spans="1:8" s="142" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A21" s="163"/>
       <c r="B21" s="164" t="s">
         <v>22</v>
@@ -8924,7 +9088,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="22" spans="1:8" s="142" customFormat="1" ht="42.75" customHeight="1">
+    <row r="22" spans="1:8" s="142" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="163"/>
       <c r="B22" s="149" t="s">
         <v>37</v>
@@ -8941,14 +9105,14 @@
       <c r="F22" s="135">
         <v>1</v>
       </c>
-      <c r="G22" s="231" t="s">
+      <c r="G22" s="232" t="s">
         <v>315</v>
       </c>
       <c r="H22" s="140" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="142" customFormat="1" ht="52.5" customHeight="1">
+    <row r="23" spans="1:8" s="142" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="163"/>
       <c r="B23" s="149" t="s">
         <v>74</v>
@@ -8965,12 +9129,12 @@
       <c r="F23" s="135">
         <v>1</v>
       </c>
-      <c r="G23" s="232"/>
+      <c r="G23" s="233"/>
       <c r="H23" s="140" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="142" customFormat="1" ht="42.75" customHeight="1">
+    <row r="24" spans="1:8" s="142" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="163"/>
       <c r="B24" s="149" t="s">
         <v>38</v>
@@ -8987,12 +9151,12 @@
       <c r="F24" s="135">
         <v>1</v>
       </c>
-      <c r="G24" s="232"/>
+      <c r="G24" s="233"/>
       <c r="H24" s="140" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="142" customFormat="1" ht="52.5" customHeight="1">
+    <row r="25" spans="1:8" s="142" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="163"/>
       <c r="B25" s="149" t="s">
         <v>75</v>
@@ -9009,12 +9173,12 @@
       <c r="F25" s="135">
         <v>1</v>
       </c>
-      <c r="G25" s="233"/>
+      <c r="G25" s="234"/>
       <c r="H25" s="140" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="142" customFormat="1" ht="21" customHeight="1">
+    <row r="26" spans="1:8" s="142" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="163"/>
       <c r="B26" s="164" t="s">
         <v>50</v>
@@ -9038,7 +9202,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="142" customFormat="1" ht="22.5" customHeight="1">
+    <row r="27" spans="1:8" s="142" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="163"/>
       <c r="B27" s="149" t="s">
         <v>49</v>
@@ -9060,7 +9224,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="142" customFormat="1" ht="19.5" customHeight="1">
+    <row r="28" spans="1:8" s="142" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="163"/>
       <c r="B28" s="164" t="s">
         <v>55</v>
@@ -9084,7 +9248,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="142" customFormat="1" ht="24.75" customHeight="1">
+    <row r="29" spans="1:8" s="142" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="166"/>
       <c r="B29" s="167" t="s">
         <v>56</v>
@@ -9106,7 +9270,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="34.35" customHeight="1">
+    <row r="30" spans="1:8" ht="34.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="169" t="s">
         <v>39</v>
       </c>
@@ -9123,17 +9287,17 @@
       <c r="E30" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="F30" s="239" t="s">
+      <c r="F30" s="240" t="s">
         <v>249</v>
       </c>
-      <c r="G30" s="239" t="s">
+      <c r="G30" s="240" t="s">
         <v>250</v>
       </c>
       <c r="H30" s="87" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="51">
+    <row r="31" spans="1:8" ht="56" x14ac:dyDescent="0.2">
       <c r="A31" s="172" t="s">
         <v>125</v>
       </c>
@@ -9150,13 +9314,13 @@
       <c r="E31" s="89" t="s">
         <v>241</v>
       </c>
-      <c r="F31" s="240"/>
-      <c r="G31" s="240"/>
+      <c r="F31" s="241"/>
+      <c r="G31" s="241"/>
       <c r="H31" s="88" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="30">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="169" t="s">
         <v>36</v>
       </c>
@@ -9183,7 +9347,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="50.25" customHeight="1">
+    <row r="33" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="175"/>
       <c r="B33" s="149" t="s">
         <v>117</v>
@@ -9207,7 +9371,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="176"/>
       <c r="B34" s="149" t="s">
         <v>27</v>
@@ -9231,8 +9395,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="234" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="235" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="149" t="s">
@@ -9257,8 +9421,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="236"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="237"/>
       <c r="B36" s="149" t="s">
         <v>29</v>
       </c>
@@ -9281,7 +9445,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="38.25">
+    <row r="37" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A37" s="169" t="s">
         <v>72</v>
       </c>
@@ -9307,7 +9471,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="175"/>
       <c r="B38" s="149" t="s">
         <v>33</v>
@@ -9331,7 +9495,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="175"/>
       <c r="B39" s="149" t="s">
         <v>34</v>
@@ -9355,7 +9519,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="56.1" customHeight="1">
+    <row r="40" spans="1:8" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="175"/>
       <c r="B40" s="165" t="s">
         <v>190</v>
@@ -9378,7 +9542,7 @@
       </c>
       <c r="H40" s="108"/>
     </row>
-    <row r="41" spans="1:8" ht="31.35" customHeight="1">
+    <row r="41" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="175"/>
       <c r="B41" s="149" t="s">
         <v>111</v>
@@ -9403,8 +9567,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="31.35" customHeight="1">
-      <c r="A42" s="234" t="s">
+    <row r="42" spans="1:8" ht="31.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="235" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="161" t="s">
@@ -9428,8 +9592,8 @@
       </c>
       <c r="H42" s="119"/>
     </row>
-    <row r="43" spans="1:8" ht="32.1" customHeight="1">
-      <c r="A43" s="235"/>
+    <row r="43" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="236"/>
       <c r="B43" s="161" t="s">
         <v>188</v>
       </c>
@@ -9451,8 +9615,8 @@
       </c>
       <c r="H43" s="119"/>
     </row>
-    <row r="44" spans="1:8" ht="23.45" customHeight="1">
-      <c r="A44" s="235"/>
+    <row r="44" spans="1:8" ht="23.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="236"/>
       <c r="B44" s="149" t="s">
         <v>112</v>
       </c>
@@ -9474,8 +9638,8 @@
       </c>
       <c r="H44" s="113"/>
     </row>
-    <row r="45" spans="1:8" ht="35.1" customHeight="1">
-      <c r="A45" s="235"/>
+    <row r="45" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="236"/>
       <c r="B45" s="179" t="s">
         <v>41</v>
       </c>
@@ -9498,8 +9662,8 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="75">
-      <c r="A46" s="235"/>
+    <row r="46" spans="1:8" ht="75" x14ac:dyDescent="0.2">
+      <c r="A46" s="236"/>
       <c r="B46" s="179" t="s">
         <v>42</v>
       </c>
@@ -9522,8 +9686,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="235"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="236"/>
       <c r="B47" s="149" t="s">
         <v>76</v>
       </c>
@@ -9547,8 +9711,8 @@
         <v>145</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30">
-      <c r="A48" s="235"/>
+    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A48" s="236"/>
       <c r="B48" s="149" t="s">
         <v>24</v>
       </c>
@@ -9571,8 +9735,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="45">
-      <c r="A49" s="235"/>
+    <row r="49" spans="1:8" ht="33" x14ac:dyDescent="0.2">
+      <c r="A49" s="236"/>
       <c r="B49" s="149" t="s">
         <v>44</v>
       </c>
@@ -9595,8 +9759,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="44.45" customHeight="1">
-      <c r="A50" s="235"/>
+    <row r="50" spans="1:8" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="236"/>
       <c r="B50" s="149" t="s">
         <v>46</v>
       </c>
@@ -9619,8 +9783,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="45.6" customHeight="1">
-      <c r="A51" s="236"/>
+    <row r="51" spans="1:8" ht="45.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="237"/>
       <c r="B51" s="149" t="s">
         <v>47</v>
       </c>
@@ -9643,7 +9807,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="182"/>
       <c r="B52" s="149" t="s">
         <v>174</v>
@@ -9665,7 +9829,7 @@
       </c>
       <c r="H52" s="125"/>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="175"/>
       <c r="B53" s="149" t="s">
         <v>51</v>
@@ -9687,7 +9851,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="158"/>
       <c r="B54" s="149" t="s">
         <v>52</v>
@@ -9709,7 +9873,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" s="32" customFormat="1">
+    <row r="55" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="183" t="s">
         <v>60</v>
       </c>
@@ -9733,7 +9897,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="32" customFormat="1">
+    <row r="56" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="184"/>
       <c r="B56" s="149" t="s">
         <v>54</v>
@@ -9755,7 +9919,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="57" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="57" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="184"/>
       <c r="B57" s="149" t="s">
         <v>57</v>
@@ -9777,7 +9941,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="32" customFormat="1" ht="48" customHeight="1">
+    <row r="58" spans="1:8" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="184"/>
       <c r="B58" s="149" t="s">
         <v>58</v>
@@ -9799,7 +9963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="32" customFormat="1" ht="45">
+    <row r="59" spans="1:8" s="32" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A59" s="184"/>
       <c r="B59" s="179" t="s">
         <v>59</v>
@@ -9824,7 +9988,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="32" customFormat="1">
+    <row r="60" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="184"/>
       <c r="B60" s="149" t="s">
         <v>71</v>
@@ -9849,7 +10013,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="61" spans="1:8" s="32" customFormat="1" ht="75">
+    <row r="61" spans="1:8" s="32" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A61" s="184"/>
       <c r="B61" s="149" t="s">
         <v>77</v>
@@ -9873,7 +10037,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="32" customFormat="1" ht="48" customHeight="1">
+    <row r="62" spans="1:8" s="32" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="184"/>
       <c r="B62" s="149" t="s">
         <v>170</v>
@@ -9897,7 +10061,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="32" customFormat="1">
+    <row r="63" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="184"/>
       <c r="B63" s="149" t="s">
         <v>61</v>
@@ -9921,7 +10085,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="32" customFormat="1">
+    <row r="64" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="160"/>
       <c r="B64" s="149" t="s">
         <v>173</v>
@@ -9943,7 +10107,7 @@
       </c>
       <c r="H64" s="140"/>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="184"/>
       <c r="B65" s="149" t="s">
         <v>66</v>
@@ -9968,7 +10132,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="184"/>
       <c r="B66" s="149" t="s">
         <v>62</v>
@@ -9990,7 +10154,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="20.25" thickBot="1">
+    <row r="67" spans="1:8" ht="21" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>160</v>
       </c>
@@ -10015,7 +10179,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" thickTop="1">
+    <row r="68" spans="1:8" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A68" s="25"/>
       <c r="B68" s="63" t="s">
         <v>64</v>
@@ -10038,7 +10202,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="30"/>
       <c r="B69" s="63" t="s">
         <v>65</v>
@@ -10061,7 +10225,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B70" s="63" t="s">
         <v>67</v>
       </c>
@@ -10083,7 +10247,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" s="63" t="s">
         <v>68</v>
       </c>
@@ -10105,7 +10269,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B72" s="63" t="s">
         <v>69</v>
       </c>
@@ -10127,7 +10291,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="90">
+    <row r="73" spans="1:8" ht="66" x14ac:dyDescent="0.2">
       <c r="B73" s="63" t="s">
         <v>175</v>
       </c>
@@ -10150,7 +10314,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="63" t="s">
         <v>320</v>
       </c>
@@ -10167,7 +10331,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="63" t="s">
         <v>321</v>
       </c>
@@ -10187,7 +10351,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C76" s="215" t="s">
         <v>476</v>
       </c>
@@ -10198,7 +10362,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C77" s="215" t="s">
         <v>515</v>
       </c>
@@ -10209,7 +10373,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C78" s="215" t="s">
         <v>516</v>
       </c>
@@ -10217,7 +10381,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C79" s="215" t="s">
         <v>519</v>
       </c>
@@ -10225,7 +10389,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C80" s="215" t="s">
         <v>521</v>
       </c>
@@ -10297,62 +10461,57 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
+  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.375" customWidth="1"/>
+    <col min="1" max="1" width="40.33203125" customWidth="1"/>
     <col min="2" max="2" width="56.5" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A1" s="243" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="244" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="243"/>
-      <c r="C1" s="243"/>
-      <c r="D1" s="243"/>
-      <c r="E1" s="243"/>
-      <c r="F1" s="243"/>
-    </row>
-    <row r="2" spans="1:6" ht="35.450000000000003" customHeight="1" thickTop="1">
-      <c r="A2" s="242" t="s">
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+    </row>
+    <row r="2" spans="1:6" ht="35.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="243" t="s">
         <v>324</v>
       </c>
-      <c r="B2" s="242"/>
-    </row>
-    <row r="3" spans="1:6" ht="17.25" customHeight="1">
+      <c r="B2" s="243"/>
+    </row>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1">
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+    <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17.25" customHeight="1">
+    <row r="6" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>328</v>
       </c>
@@ -10360,62 +10519,62 @@
         <v>329</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.25" customHeight="1">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.25" customHeight="1">
+    <row r="8" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.25" customHeight="1">
+    <row r="9" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.25" customHeight="1">
+    <row r="10" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17.25" customHeight="1">
+    <row r="11" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17.25" customHeight="1">
+    <row r="12" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.25" customHeight="1">
+    <row r="13" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.25" customHeight="1">
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.25" customHeight="1">
+    <row r="16" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="17.25" customHeight="1">
+    <row r="17" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17.25" customHeight="1">
+    <row r="18" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>334</v>
       </c>
@@ -10431,11 +10590,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10443,20 +10597,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.375" style="189" customWidth="1"/>
-    <col min="2" max="2" width="33.625" style="142" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" style="189" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" style="142" customWidth="1"/>
     <col min="3" max="3" width="71.5" style="142" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="142" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="142"/>
+    <col min="5" max="16384" width="8.83203125" style="142"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" thickTop="1" thickBot="1">
+    <row r="1" spans="1:4" ht="22" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="188" t="s">
         <v>363</v>
       </c>
@@ -10470,7 +10624,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="61.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:4" ht="47" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="189" t="s">
         <v>364</v>
       </c>
@@ -10484,7 +10638,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75" thickBot="1">
+    <row r="3" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="190" t="s">
         <v>367</v>
       </c>
@@ -10498,7 +10652,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1">
+    <row r="4" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="190" t="s">
         <v>480</v>
       </c>
@@ -10512,7 +10666,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1">
+    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="190" t="s">
         <v>372</v>
       </c>
@@ -10526,7 +10680,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="223" t="s">
         <v>529</v>
       </c>
@@ -10540,7 +10694,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="45">
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A7" s="223" t="s">
         <v>532</v>
       </c>
@@ -10554,7 +10708,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="31.5">
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="223" t="s">
         <v>535</v>
       </c>
@@ -10568,7 +10722,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="195.75" thickBot="1">
+    <row r="9" spans="1:4" ht="196" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="191" t="s">
         <v>78</v>
       </c>
@@ -10582,7 +10736,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30.75" thickBot="1">
+    <row r="10" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="190" t="s">
         <v>375</v>
       </c>
@@ -10596,7 +10750,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30.75" thickBot="1">
+    <row r="11" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="190" t="s">
         <v>378</v>
       </c>
@@ -10610,7 +10764,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="45.75" thickBot="1">
+    <row r="12" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="190" t="s">
         <v>380</v>
       </c>
@@ -10624,7 +10778,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="60.75" thickBot="1">
+    <row r="13" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="190" t="s">
         <v>382</v>
       </c>
@@ -10638,7 +10792,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="105.75" thickBot="1">
+    <row r="14" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="190" t="s">
         <v>385</v>
       </c>
@@ -10652,7 +10806,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="60.75" thickBot="1">
+    <row r="15" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="190" t="s">
         <v>388</v>
       </c>
@@ -10666,7 +10820,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="135.75" thickBot="1">
+    <row r="16" spans="1:4" ht="136" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="190" t="s">
         <v>391</v>
       </c>
@@ -10680,7 +10834,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.5" thickBot="1">
+    <row r="17" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="190" t="s">
         <v>394</v>
       </c>
@@ -10692,7 +10846,7 @@
       </c>
       <c r="D17" s="23"/>
     </row>
-    <row r="18" spans="1:4" ht="90.75" thickBot="1">
+    <row r="18" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="190" t="s">
         <v>397</v>
       </c>
@@ -10706,7 +10860,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30.75" thickBot="1">
+    <row r="19" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="190" t="s">
         <v>398</v>
       </c>
@@ -10720,7 +10874,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="75.75" thickBot="1">
+    <row r="20" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="190" t="s">
         <v>400</v>
       </c>
@@ -10734,7 +10888,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="90.75" thickBot="1">
+    <row r="21" spans="1:4" ht="91" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="190" t="s">
         <v>79</v>
       </c>
@@ -10748,7 +10902,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="60">
+    <row r="22" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A22" s="192" t="s">
         <v>402</v>
       </c>
@@ -10762,7 +10916,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="75.75" thickBot="1">
+    <row r="23" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="193" t="s">
         <v>404</v>
       </c>
@@ -10776,7 +10930,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="45.75" thickBot="1">
+    <row r="24" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="190" t="s">
         <v>406</v>
       </c>
@@ -10790,7 +10944,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30.75" thickBot="1">
+    <row r="25" spans="1:4" ht="31" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="190" t="s">
         <v>408</v>
       </c>
@@ -10804,7 +10958,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="60.75" thickBot="1">
+    <row r="26" spans="1:4" ht="61" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="190" t="s">
         <v>410</v>
       </c>
@@ -10818,7 +10972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="32.25" thickBot="1">
+    <row r="27" spans="1:4" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="190" t="s">
         <v>412</v>
       </c>
@@ -10832,7 +10986,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="75.75" thickBot="1">
+    <row r="28" spans="1:4" ht="76" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="190" t="s">
         <v>414</v>
       </c>
@@ -10846,7 +11000,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="45.75" thickBot="1">
+    <row r="29" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="190" t="s">
         <v>416</v>
       </c>
@@ -10860,7 +11014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="45.75" thickBot="1">
+    <row r="30" spans="1:4" ht="46" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="190" t="s">
         <v>418</v>
       </c>
@@ -10874,7 +11028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="60">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="192" t="s">
         <v>420</v>
       </c>
@@ -10888,7 +11042,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A32" s="194" t="s">
         <v>422</v>
       </c>
@@ -10900,7 +11054,7 @@
       </c>
       <c r="D32" s="23"/>
     </row>
-    <row r="33" spans="1:4" ht="30">
+    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A33" s="194" t="s">
         <v>424</v>
       </c>
@@ -10912,7 +11066,7 @@
       </c>
       <c r="D33" s="23"/>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="194" t="s">
         <v>427</v>
       </c>
@@ -10924,7 +11078,7 @@
       </c>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" ht="75">
+    <row r="35" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A35" s="194" t="s">
         <v>430</v>
       </c>
@@ -10938,7 +11092,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="194" t="s">
         <v>245</v>
       </c>
@@ -10952,7 +11106,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="150">
+    <row r="37" spans="1:4" ht="150" x14ac:dyDescent="0.2">
       <c r="A37" s="194" t="s">
         <v>80</v>
       </c>
@@ -10966,7 +11120,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="90">
+    <row r="38" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A38" s="194" t="s">
         <v>433</v>
       </c>
@@ -10980,7 +11134,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="75">
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A39" s="194" t="s">
         <v>436</v>
       </c>
@@ -10994,7 +11148,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="60">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A40" s="191" t="s">
         <v>439</v>
       </c>
@@ -11008,7 +11162,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="196" t="s">
         <v>3</v>
       </c>
@@ -11022,7 +11176,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="75">
+    <row r="42" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A42" s="198" t="s">
         <v>81</v>
       </c>
@@ -11036,7 +11190,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="198" t="s">
         <v>442</v>
       </c>
@@ -11050,7 +11204,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="45">
+    <row r="44" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A44" s="198" t="s">
         <v>444</v>
       </c>
@@ -11064,7 +11218,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="45">
+    <row r="45" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A45" s="198" t="s">
         <v>447</v>
       </c>
@@ -11078,7 +11232,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="165">
+    <row r="46" spans="1:4" ht="165" x14ac:dyDescent="0.2">
       <c r="A46" s="198" t="s">
         <v>82</v>
       </c>
@@ -11092,7 +11246,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="30">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A47" s="198" t="s">
         <v>83</v>
       </c>
@@ -11104,7 +11258,7 @@
       </c>
       <c r="D47" s="23"/>
     </row>
-    <row r="48" spans="1:4" ht="105">
+    <row r="48" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A48" s="198" t="s">
         <v>450</v>
       </c>
@@ -11118,7 +11272,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="120">
+    <row r="49" spans="1:4" ht="120" x14ac:dyDescent="0.2">
       <c r="A49" s="198" t="s">
         <v>452</v>
       </c>
@@ -11132,7 +11286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="75">
+    <row r="50" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A50" s="198" t="s">
         <v>454</v>
       </c>
@@ -11146,7 +11300,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="60">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A51" s="198" t="s">
         <v>456</v>
       </c>
@@ -11160,7 +11314,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="105">
+    <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A52" s="198" t="s">
         <v>459</v>
       </c>
@@ -11174,7 +11328,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="45">
+    <row r="53" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A53" s="198" t="s">
         <v>462</v>
       </c>
@@ -11188,7 +11342,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30">
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A54" s="198" t="s">
         <v>513</v>
       </c>
@@ -11202,7 +11356,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30">
+    <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="198" t="s">
         <v>463</v>
       </c>
@@ -11216,7 +11370,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="60">
+    <row r="56" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A56" s="198" t="s">
         <v>466</v>
       </c>
@@ -11230,7 +11384,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C57" s="199"/>
     </row>
   </sheetData>
@@ -11240,37 +11394,32 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
-    <col min="2" max="2" width="78.375" customWidth="1"/>
-    <col min="3" max="3" width="45.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" customWidth="1"/>
     <col min="4" max="4" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="42" customFormat="1" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:3" s="42" customFormat="1" ht="18" thickBot="1">
+    <row r="1" spans="1:3" s="42" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:3" s="42" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>229</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" s="42" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" s="42" customFormat="1" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>230</v>
       </c>
@@ -11278,18 +11427,18 @@
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="42" customFormat="1"/>
-    <row r="5" spans="1:3">
+    <row r="4" spans="1:3" s="42" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="31"/>
       <c r="B5" s="31"/>
       <c r="C5" s="31"/>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+    <row r="6" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>223</v>
       </c>
@@ -11298,7 +11447,7 @@
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15.75" thickBot="1">
+    <row r="8" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>225</v>
       </c>
@@ -11307,17 +11456,17 @@
       </c>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+    <row r="10" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="45">
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A11" s="12" t="s">
         <v>176</v>
       </c>
@@ -11326,7 +11475,7 @@
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>177</v>
       </c>
@@ -11335,7 +11484,7 @@
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>179</v>
       </c>
@@ -11344,7 +11493,7 @@
       </c>
       <c r="C13" s="24"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>181</v>
       </c>
@@ -11353,7 +11502,7 @@
       </c>
       <c r="C14" s="24"/>
     </row>
-    <row r="15" spans="1:3" ht="30">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>182</v>
       </c>
@@ -11362,7 +11511,7 @@
       </c>
       <c r="C15" s="24"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+    <row r="16" spans="1:3" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>183</v>
       </c>
@@ -11374,36 +11523,31 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet8"/>
+  <sheetPr codeName="Sheet8" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -11414,7 +11558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -11425,7 +11569,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -11436,7 +11580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -11444,7 +11588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -11454,10 +11598,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>